--- a/18. Release Note/HKMC_CVa_Software_변경이력.xlsx
+++ b/18. Release Note/HKMC_CVa_Software_변경이력.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\PROJECT\Gitlab\HMC\CVa\cva_ptc_heater_doc\18. Release Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KJG\3.Gitlab\HMC\CVa\cva_ptc_heater_doc\18. Release Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1207,7 +1207,22 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>25.05.07</t>
+    <t>HKMC CVa Software</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC-RH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.05.14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>077A673F</t>
+  </si>
+  <si>
+    <t>07291A68</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1325,57 +1340,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>누적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>검출</t>
     </r>
     <r>
@@ -1611,26 +1575,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>HKMC CVa Software</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC-RH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>077A378E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0728EAB7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CC-RH V2.06.00
 PTC_Heater_Boot-01.00-231115-0x07A6B329.mot
-PTC_Heater_CVa_01.03.02-250507_0x077A378E.s19
-PTC_Heater_CVa_01.03.02-250507_0x0728EAB7.mot(Boot+App)</t>
+PTC_Heater_CVa_01.03.02-250514_0x077A673F.s19
+PTC_Heater_CVa_01.03.02-250514_0x07291A68.mot(Boot+App)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1993,6 +1941,126 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2016,126 +2084,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2453,280 +2401,287 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="72" customWidth="1"/>
-    <col min="2" max="2" width="7" style="72" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" style="42" customWidth="1"/>
-    <col min="5" max="7" width="8.88671875" style="72" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" style="42" customWidth="1"/>
-    <col min="9" max="9" width="40" style="42" customWidth="1"/>
-    <col min="10" max="11" width="7.77734375" style="42" customWidth="1"/>
-    <col min="12" max="12" width="17.21875" style="42" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="42"/>
+    <col min="1" max="1" width="3.88671875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="7" style="49" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" style="28" customWidth="1"/>
+    <col min="5" max="7" width="8.88671875" style="49" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="40" style="28" customWidth="1"/>
+    <col min="10" max="11" width="7.77734375" style="28" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" style="28" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40.5" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" s="48" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:12" s="30" customFormat="1" ht="24" customHeight="1">
+      <c r="A2" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47" t="s">
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
     </row>
-    <row r="3" spans="1:12" s="48" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:12" s="30" customFormat="1" ht="24" customHeight="1">
+      <c r="A3" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47" t="s">
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
     </row>
-    <row r="4" spans="1:12" s="48" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+    <row r="4" spans="1:12" s="30" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
     </row>
-    <row r="5" spans="1:12" s="48" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:12" s="30" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A5" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="51" t="s">
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="51" t="s">
+      <c r="L5" s="55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="48" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56" t="s">
+    <row r="6" spans="1:12" s="30" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="1:12" s="48" customFormat="1" ht="40.5">
-      <c r="A7" s="59">
+    <row r="7" spans="1:12" s="30" customFormat="1" ht="40.5">
+      <c r="A7" s="36">
         <v>1</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="38" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="66" t="s">
+      <c r="K7" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="67"/>
+      <c r="L7" s="44"/>
     </row>
-    <row r="8" spans="1:12" s="48" customFormat="1" ht="40.5">
-      <c r="A8" s="59">
+    <row r="8" spans="1:12" s="30" customFormat="1" ht="40.5">
+      <c r="A8" s="36">
         <v>2</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="62" t="s">
+      <c r="G8" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="66" t="s">
+      <c r="K8" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="67" t="s">
+      <c r="L8" s="44" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="48" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
+    <row r="9" spans="1:12" s="30" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="69"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="46"/>
     </row>
-    <row r="10" spans="1:12" s="48" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="67"/>
+    <row r="10" spans="1:12" s="30" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="67"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="71"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:L3"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="A5:A6"/>
@@ -2735,13 +2690,6 @@
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2765,61 +2713,61 @@
     <col min="4" max="4" width="7.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.77734375" style="1" customWidth="1"/>
     <col min="6" max="7" width="10.33203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="72" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="49" customWidth="1"/>
     <col min="9" max="9" width="46.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="A1" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="27"/>
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="27"/>
       <c r="I3" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="10.9" customHeight="1">
@@ -2830,54 +2778,54 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="50"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="30" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="68" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="33"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="20" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="51.75" customHeight="1">
       <c r="A7" s="7">
@@ -2899,7 +2847,7 @@
       <c r="G7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="62" t="s">
+      <c r="H7" s="39" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="19" t="s">
@@ -2927,7 +2875,7 @@
       <c r="G8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="39" t="s">
         <v>79</v>
       </c>
       <c r="I8" s="19" t="s">
@@ -2957,7 +2905,7 @@
       <c r="G9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="39" t="s">
         <v>80</v>
       </c>
       <c r="I9" s="19" t="s">
@@ -2987,7 +2935,7 @@
       <c r="G10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="39" t="s">
         <v>81</v>
       </c>
       <c r="I10" s="24" t="s">
@@ -3017,7 +2965,7 @@
       <c r="G11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="39" t="s">
         <v>82</v>
       </c>
       <c r="I11" s="11" t="s">
@@ -3036,21 +2984,21 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="75" t="s">
+      <c r="I12" s="52" t="s">
         <v>95</v>
       </c>
       <c r="J12" s="26" t="s">
@@ -3065,16 +3013,11 @@
       <c r="E13" s="18"/>
       <c r="F13" s="17"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="74"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -3083,6 +3026,11 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/18. Release Note/HKMC_CVa_Software_변경이력.xlsx
+++ b/18. Release Note/HKMC_CVa_Software_변경이력.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KJG\3.Gitlab\HMC\CVa\cva_ptc_heater_doc\18. Release Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\PROJECT\Gitlab\HMC\CVa\cva_ptc_heater_doc\18. Release Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
   <si>
     <t>File Name</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1579,6 +1579,11 @@
 PTC_Heater_Boot-01.00-231115-0x07A6B329.mot
 PTC_Heater_CVa_01.03.02-250514_0x077A673F.s19
 PTC_Heater_CVa_01.03.02-250514_0x07291A68.mot(Boot+App)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사용
+(사유 : Alert 추가 철회)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1713,7 +1718,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1723,6 +1728,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="48"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1856,7 +1867,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2013,8 +2024,20 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2028,37 +2051,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2084,6 +2077,42 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2414,64 +2443,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40.5" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="30" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="62" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="1:12" s="30" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="1:12" s="30" customFormat="1" ht="10.5" customHeight="1">
       <c r="A4" s="31"/>
@@ -2488,41 +2517,41 @@
       <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:12" s="30" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="57" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="55" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="59" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="30" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="34" t="s">
         <v>56</v>
       </c>
@@ -2538,10 +2567,10 @@
       <c r="H6" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="56"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" s="30" customFormat="1" ht="40.5">
       <c r="A7" s="36">
@@ -2675,13 +2704,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:L3"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="A5:A6"/>
@@ -2690,6 +2712,13 @@
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2720,51 +2749,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="67"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="27"/>
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="67"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="27"/>
       <c r="I3" s="5" t="s">
         <v>90</v>
@@ -2782,39 +2811,39 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="75"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="50"/>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="62" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="73"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="20" t="s">
         <v>7</v>
       </c>
@@ -2824,8 +2853,8 @@
       <c r="H6" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="51.75" customHeight="1">
       <c r="A7" s="7">
@@ -2976,33 +3005,33 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="15" customFormat="1" ht="51">
-      <c r="A12" s="10">
+      <c r="A12" s="75">
         <v>6</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="75"/>
+      <c r="D12" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="26" t="s">
-        <v>39</v>
+      <c r="J12" s="81" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25">
@@ -3018,6 +3047,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -3026,11 +3060,6 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
